--- a/Code/Results/Cases/Case_5_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01251809119624</v>
+        <v>1.061376949907918</v>
       </c>
       <c r="D2">
-        <v>1.029152712189963</v>
+        <v>1.059268964046522</v>
       </c>
       <c r="E2">
-        <v>1.023598753302241</v>
+        <v>1.066137741294542</v>
       </c>
       <c r="F2">
-        <v>1.031384043595478</v>
+        <v>1.075198332236494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052477141170098</v>
+        <v>1.046764804841948</v>
       </c>
       <c r="J2">
-        <v>1.034330727825529</v>
+        <v>1.066352946779296</v>
       </c>
       <c r="K2">
-        <v>1.040220311142514</v>
+        <v>1.061998929533475</v>
       </c>
       <c r="L2">
-        <v>1.034738825686393</v>
+        <v>1.068849097986149</v>
       </c>
       <c r="M2">
-        <v>1.042422800913474</v>
+        <v>1.07788553521846</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021803845137058</v>
+        <v>1.063115506579163</v>
       </c>
       <c r="D3">
-        <v>1.036393170665471</v>
+        <v>1.060615663001646</v>
       </c>
       <c r="E3">
-        <v>1.031826381720907</v>
+        <v>1.067704699373687</v>
       </c>
       <c r="F3">
-        <v>1.039961148387844</v>
+        <v>1.076849878206589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055896355181409</v>
+        <v>1.047272688990757</v>
       </c>
       <c r="J3">
-        <v>1.041717262065275</v>
+        <v>1.067741759823263</v>
       </c>
       <c r="K3">
-        <v>1.046580643601355</v>
+        <v>1.063158477468311</v>
       </c>
       <c r="L3">
-        <v>1.04206761021969</v>
+        <v>1.070229715825728</v>
       </c>
       <c r="M3">
-        <v>1.050107028876962</v>
+        <v>1.079352306830526</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027593446301328</v>
+        <v>1.064237477795957</v>
       </c>
       <c r="D4">
-        <v>1.040909468770406</v>
+        <v>1.061484340803692</v>
       </c>
       <c r="E4">
-        <v>1.036958305482339</v>
+        <v>1.068715636053693</v>
       </c>
       <c r="F4">
-        <v>1.045314543505633</v>
+        <v>1.077915825873264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058012199797642</v>
+        <v>1.047598461532078</v>
       </c>
       <c r="J4">
-        <v>1.046316710168273</v>
+        <v>1.068637107034582</v>
       </c>
       <c r="K4">
-        <v>1.05053800477242</v>
+        <v>1.063905521738347</v>
       </c>
       <c r="L4">
-        <v>1.046630235866015</v>
+        <v>1.071119587538366</v>
       </c>
       <c r="M4">
-        <v>1.054895174335358</v>
+        <v>1.080298215184435</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029978593553847</v>
+        <v>1.064708453617011</v>
       </c>
       <c r="D5">
-        <v>1.042770367404081</v>
+        <v>1.061848891014127</v>
       </c>
       <c r="E5">
-        <v>1.039072901876196</v>
+        <v>1.069139931483659</v>
       </c>
       <c r="F5">
-        <v>1.047521226755493</v>
+        <v>1.078363314474427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058879948993111</v>
+        <v>1.047734736153023</v>
       </c>
       <c r="J5">
-        <v>1.04821003320934</v>
+        <v>1.06901273142618</v>
       </c>
       <c r="K5">
-        <v>1.05216624180905</v>
+        <v>1.064218808669961</v>
       </c>
       <c r="L5">
-        <v>1.048508190515536</v>
+        <v>1.071492868959049</v>
       </c>
       <c r="M5">
-        <v>1.056866957271388</v>
+        <v>1.08069512389279</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030376306231706</v>
+        <v>1.064787491869683</v>
       </c>
       <c r="D6">
-        <v>1.043080678481564</v>
+        <v>1.06191006326648</v>
       </c>
       <c r="E6">
-        <v>1.039425521798465</v>
+        <v>1.069211131755969</v>
       </c>
       <c r="F6">
-        <v>1.047889251292781</v>
+        <v>1.078438412891997</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059024409735649</v>
+        <v>1.047757577524757</v>
       </c>
       <c r="J6">
-        <v>1.048525645142553</v>
+        <v>1.069075755054717</v>
       </c>
       <c r="K6">
-        <v>1.052437617949791</v>
+        <v>1.064271366036323</v>
       </c>
       <c r="L6">
-        <v>1.048821228086524</v>
+        <v>1.071555496791676</v>
       </c>
       <c r="M6">
-        <v>1.05719569402126</v>
+        <v>1.080761722931379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027625504032032</v>
+        <v>1.064243773731071</v>
       </c>
       <c r="D7">
-        <v>1.040934479237784</v>
+        <v>1.061489214448988</v>
       </c>
       <c r="E7">
-        <v>1.036986725423606</v>
+        <v>1.068721308251306</v>
       </c>
       <c r="F7">
-        <v>1.045344197802503</v>
+        <v>1.077921807717315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058023878460903</v>
+        <v>1.047600285105713</v>
       </c>
       <c r="J7">
-        <v>1.046342163605591</v>
+        <v>1.068642129192429</v>
       </c>
       <c r="K7">
-        <v>1.050559897572162</v>
+        <v>1.06390971090716</v>
       </c>
       <c r="L7">
-        <v>1.046655483533766</v>
+        <v>1.071124578550352</v>
       </c>
       <c r="M7">
-        <v>1.054921679479342</v>
+        <v>1.080303521632084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015703878371709</v>
+        <v>1.061965131824149</v>
       </c>
       <c r="D8">
-        <v>1.031636289618361</v>
+        <v>1.059724658319982</v>
       </c>
       <c r="E8">
-        <v>1.026421013743339</v>
+        <v>1.06666792934176</v>
       </c>
       <c r="F8">
-        <v>1.034325438354987</v>
+        <v>1.075757049959421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053653563296233</v>
+        <v>1.04693704246</v>
       </c>
       <c r="J8">
-        <v>1.036866148598194</v>
+        <v>1.066822994961913</v>
       </c>
       <c r="K8">
-        <v>1.042404123102092</v>
+        <v>1.062391485495858</v>
       </c>
       <c r="L8">
-        <v>1.037254604479028</v>
+        <v>1.069316412467505</v>
       </c>
       <c r="M8">
-        <v>1.045059688338223</v>
+        <v>1.078381905973982</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928339130543845</v>
+        <v>1.057926278518517</v>
       </c>
       <c r="D9">
-        <v>1.013822817713472</v>
+        <v>1.056593916734176</v>
       </c>
       <c r="E9">
-        <v>1.006174659696518</v>
+        <v>1.063026107187637</v>
       </c>
       <c r="F9">
-        <v>1.013240061193234</v>
+        <v>1.071921074080035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045141585356602</v>
+        <v>1.04574616961598</v>
       </c>
       <c r="J9">
-        <v>1.018642287146409</v>
+        <v>1.063591560669158</v>
       </c>
       <c r="K9">
-        <v>1.026695540716366</v>
+        <v>1.05969074625806</v>
       </c>
       <c r="L9">
-        <v>1.019168345464881</v>
+        <v>1.066102971527101</v>
       </c>
       <c r="M9">
-        <v>1.026121918816071</v>
+        <v>1.074970759497738</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9760279126069156</v>
+        <v>1.05521688191818</v>
       </c>
       <c r="D10">
-        <v>1.000762064219643</v>
+        <v>1.054491703971969</v>
       </c>
       <c r="E10">
-        <v>0.9913213683727883</v>
+        <v>1.060581569445362</v>
       </c>
       <c r="F10">
-        <v>0.9977918517869304</v>
+        <v>1.069348503321495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038804882106692</v>
+        <v>1.044937032602859</v>
       </c>
       <c r="J10">
-        <v>1.00522601186441</v>
+        <v>1.061419086660913</v>
       </c>
       <c r="K10">
-        <v>1.015117572979968</v>
+        <v>1.057872509297541</v>
       </c>
       <c r="L10">
-        <v>1.005849106329461</v>
+        <v>1.063941580305755</v>
       </c>
       <c r="M10">
-        <v>1.012201089814486</v>
+        <v>1.072679035291621</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9682945579787179</v>
+        <v>1.054039476293978</v>
       </c>
       <c r="D11">
-        <v>0.9947627173291588</v>
+        <v>1.05357769891199</v>
       </c>
       <c r="E11">
-        <v>0.9844950590396141</v>
+        <v>1.059518916211598</v>
       </c>
       <c r="F11">
-        <v>0.9906971971818487</v>
+        <v>1.068230739508575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035871286836242</v>
+        <v>1.044582983561595</v>
       </c>
       <c r="J11">
-        <v>0.9990485044140642</v>
+        <v>1.060473893723973</v>
       </c>
       <c r="K11">
-        <v>1.00978408163189</v>
+        <v>1.057080839238979</v>
       </c>
       <c r="L11">
-        <v>0.9997154215809542</v>
+        <v>1.063000966382796</v>
       </c>
       <c r="M11">
-        <v>1.005796709321472</v>
+        <v>1.071682331557867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9653444173066115</v>
+        <v>1.05360148287724</v>
       </c>
       <c r="D12">
-        <v>0.992476032343702</v>
+        <v>1.053237622533506</v>
       </c>
       <c r="E12">
-        <v>0.9818924875308213</v>
+        <v>1.059123559119494</v>
       </c>
       <c r="F12">
-        <v>0.9879930944991291</v>
+        <v>1.067814960944811</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034749680520063</v>
+        <v>1.044450913589352</v>
       </c>
       <c r="J12">
-        <v>0.9966914928982613</v>
+        <v>1.060122116153484</v>
       </c>
       <c r="K12">
-        <v>1.007748813396508</v>
+        <v>1.056786109889671</v>
       </c>
       <c r="L12">
-        <v>0.9973750202463478</v>
+        <v>1.062650856330957</v>
       </c>
       <c r="M12">
-        <v>1.003354000689539</v>
+        <v>1.071311438857026</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659809104433766</v>
+        <v>1.053695463783195</v>
       </c>
       <c r="D13">
-        <v>0.9929692899032585</v>
+        <v>1.053310596271111</v>
       </c>
       <c r="E13">
-        <v>0.9824539180015067</v>
+        <v>1.059208393803262</v>
       </c>
       <c r="F13">
-        <v>0.9885763921248716</v>
+        <v>1.067904173888959</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034991776362644</v>
+        <v>1.044479268509471</v>
       </c>
       <c r="J13">
-        <v>0.9972000328968038</v>
+        <v>1.060197605143117</v>
       </c>
       <c r="K13">
-        <v>1.008187946940506</v>
+        <v>1.056849360760371</v>
       </c>
       <c r="L13">
-        <v>0.9978799811102791</v>
+        <v>1.06272598914517</v>
       </c>
       <c r="M13">
-        <v>1.003880990504433</v>
+        <v>1.071391027289082</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9680523408255427</v>
+        <v>1.054003285042077</v>
       </c>
       <c r="D14">
-        <v>0.99457493028189</v>
+        <v>1.053549599883853</v>
       </c>
       <c r="E14">
-        <v>0.9842813455545681</v>
+        <v>1.059486249030653</v>
       </c>
       <c r="F14">
-        <v>0.9904751305212558</v>
+        <v>1.068196383283604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035779248197926</v>
+        <v>1.044572078085721</v>
       </c>
       <c r="J14">
-        <v>0.9988549921440772</v>
+        <v>1.060444829861253</v>
       </c>
       <c r="K14">
-        <v>1.009616990070002</v>
+        <v>1.057056490516094</v>
       </c>
       <c r="L14">
-        <v>0.99952327512308</v>
+        <v>1.06297204103932</v>
       </c>
       <c r="M14">
-        <v>1.005596143449758</v>
+        <v>1.071651687262974</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693180295127802</v>
+        <v>1.054192856847983</v>
       </c>
       <c r="D15">
-        <v>0.9955562800745146</v>
+        <v>1.053696781408041</v>
       </c>
       <c r="E15">
-        <v>0.9853981547240337</v>
+        <v>1.059657359453906</v>
       </c>
       <c r="F15">
-        <v>0.9916356227195245</v>
+        <v>1.068376344273402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036260089841616</v>
+        <v>1.044629186677987</v>
       </c>
       <c r="J15">
-        <v>0.9998661619435923</v>
+        <v>1.060597061171643</v>
       </c>
       <c r="K15">
-        <v>1.010490091142408</v>
+        <v>1.057184021120405</v>
       </c>
       <c r="L15">
-        <v>1.000527303730663</v>
+        <v>1.063123545308723</v>
       </c>
       <c r="M15">
-        <v>1.006644206170891</v>
+        <v>1.071812198882519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9765308004976083</v>
+        <v>1.05529493197204</v>
       </c>
       <c r="D16">
-        <v>1.001152439715945</v>
+        <v>1.054552283690237</v>
       </c>
       <c r="E16">
-        <v>0.9917654686315325</v>
+        <v>1.060652005350228</v>
       </c>
       <c r="F16">
-        <v>0.9982535152858617</v>
+        <v>1.069422603629957</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038995298698213</v>
+        <v>1.044960451437829</v>
       </c>
       <c r="J16">
-        <v>1.00562765972671</v>
+        <v>1.061481719959844</v>
       </c>
       <c r="K16">
-        <v>1.015464300973713</v>
+        <v>1.057924956870776</v>
       </c>
       <c r="L16">
-        <v>1.006247888759364</v>
+        <v>1.064003905052445</v>
       </c>
       <c r="M16">
-        <v>1.01261760411188</v>
+        <v>1.072745089785632</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9809271358143923</v>
+        <v>1.055985091907281</v>
       </c>
       <c r="D17">
-        <v>1.004566395956222</v>
+        <v>1.055087908847166</v>
       </c>
       <c r="E17">
-        <v>0.995648849163404</v>
+        <v>1.061274797149992</v>
       </c>
       <c r="F17">
-        <v>1.002291044173501</v>
+        <v>1.070077858936848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040657989547538</v>
+        <v>1.045167253356162</v>
       </c>
       <c r="J17">
-        <v>1.009138514640378</v>
+        <v>1.062035428334256</v>
       </c>
       <c r="K17">
-        <v>1.018494830648532</v>
+        <v>1.058388549771934</v>
       </c>
       <c r="L17">
-        <v>1.009733602371532</v>
+        <v>1.064554857667895</v>
       </c>
       <c r="M17">
-        <v>1.01625902198056</v>
+        <v>1.073329086053814</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9834481181870883</v>
+        <v>1.056387244719838</v>
       </c>
       <c r="D18">
-        <v>1.006525015557345</v>
+        <v>1.055399970663223</v>
       </c>
       <c r="E18">
-        <v>0.9978764595781011</v>
+        <v>1.061637661563657</v>
       </c>
       <c r="F18">
-        <v>1.004607548800697</v>
+        <v>1.070459690487784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041609761875976</v>
+        <v>1.045287522075185</v>
       </c>
       <c r="J18">
-        <v>1.011151356441426</v>
+        <v>1.062357964164015</v>
       </c>
       <c r="K18">
-        <v>1.020232061296634</v>
+        <v>1.058658535708231</v>
       </c>
       <c r="L18">
-        <v>1.011731949047874</v>
+        <v>1.064875764911992</v>
       </c>
       <c r="M18">
-        <v>1.018347221099476</v>
+        <v>1.07366930042944</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9843006080398924</v>
+        <v>1.056524300167528</v>
       </c>
       <c r="D19">
-        <v>1.007187491269051</v>
+        <v>1.055506315140134</v>
       </c>
       <c r="E19">
-        <v>0.9986298669883854</v>
+        <v>1.061761321685708</v>
       </c>
       <c r="F19">
-        <v>1.00539110081572</v>
+        <v>1.070589823303555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041931324638737</v>
+        <v>1.045328470520918</v>
       </c>
       <c r="J19">
-        <v>1.011831944786843</v>
+        <v>1.062467867575769</v>
       </c>
       <c r="K19">
-        <v>1.020819417846504</v>
+        <v>1.058750523081292</v>
       </c>
       <c r="L19">
-        <v>1.012407622029382</v>
+        <v>1.06498510943145</v>
       </c>
       <c r="M19">
-        <v>1.019053373585905</v>
+        <v>1.073785233842666</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804599922352989</v>
+        <v>1.055911086386575</v>
       </c>
       <c r="D20">
-        <v>1.004203535075878</v>
+        <v>1.0550304785949</v>
       </c>
       <c r="E20">
-        <v>0.9952361288833561</v>
+        <v>1.061208018926082</v>
       </c>
       <c r="F20">
-        <v>1.001861892126511</v>
+        <v>1.070007594406864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040481488022773</v>
+        <v>1.045145102268322</v>
       </c>
       <c r="J20">
-        <v>1.00876549842424</v>
+        <v>1.061976065551843</v>
       </c>
       <c r="K20">
-        <v>1.018172870913896</v>
+        <v>1.05833885417022</v>
       </c>
       <c r="L20">
-        <v>1.009363265664049</v>
+        <v>1.064495792747075</v>
       </c>
       <c r="M20">
-        <v>1.015872081223968</v>
+        <v>1.073266472416411</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9674445808852207</v>
+        <v>1.053912657518111</v>
       </c>
       <c r="D21">
-        <v>0.9941037766468818</v>
+        <v>1.053479235235767</v>
       </c>
       <c r="E21">
-        <v>0.9837451315132213</v>
+        <v>1.059404445402539</v>
       </c>
       <c r="F21">
-        <v>0.9899179706193524</v>
+        <v>1.068110351359475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035548269831443</v>
+        <v>1.044544763500219</v>
       </c>
       <c r="J21">
-        <v>0.9983694345241032</v>
+        <v>1.060372047536507</v>
       </c>
       <c r="K21">
-        <v>1.009197722475842</v>
+        <v>1.056995514503065</v>
       </c>
       <c r="L21">
-        <v>0.999041142878308</v>
+        <v>1.062899605004452</v>
       </c>
       <c r="M21">
-        <v>1.005092901122223</v>
+        <v>1.071574948090332</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9588062594302046</v>
+        <v>1.05265238114108</v>
       </c>
       <c r="D22">
-        <v>0.9874123345405973</v>
+        <v>1.052500578072912</v>
       </c>
       <c r="E22">
-        <v>0.9761278299958829</v>
+        <v>1.058266753853074</v>
       </c>
       <c r="F22">
-        <v>0.9820050042230347</v>
+        <v>1.066914049699699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032259563271869</v>
+        <v>1.044164061188242</v>
       </c>
       <c r="J22">
-        <v>0.9914673471204627</v>
+        <v>1.059359533188601</v>
       </c>
       <c r="K22">
-        <v>1.00323734897693</v>
+        <v>1.056147033275773</v>
       </c>
       <c r="L22">
-        <v>0.9921875111703482</v>
+        <v>1.061891820872512</v>
       </c>
       <c r="M22">
-        <v>0.9979415776209949</v>
+        <v>1.070507520495799</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9634322463125622</v>
+        <v>1.053320842545805</v>
       </c>
       <c r="D23">
-        <v>0.9909944932064788</v>
+        <v>1.053019702792322</v>
       </c>
       <c r="E23">
-        <v>0.9802060724618521</v>
+        <v>1.058870223216249</v>
       </c>
       <c r="F23">
-        <v>0.9862411104792395</v>
+        <v>1.067548562611164</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03402201908454</v>
+        <v>1.044366188483059</v>
       </c>
       <c r="J23">
-        <v>0.9951636807601664</v>
+        <v>1.059896670892451</v>
       </c>
       <c r="K23">
-        <v>1.00642948399849</v>
+        <v>1.056597200323916</v>
       </c>
       <c r="L23">
-        <v>0.995857946512962</v>
+        <v>1.062426469389806</v>
       </c>
       <c r="M23">
-        <v>1.001770890675874</v>
+        <v>1.071073758942466</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9806712075296201</v>
+        <v>1.055944527549458</v>
       </c>
       <c r="D24">
-        <v>1.00436759680373</v>
+        <v>1.055056429963859</v>
       </c>
       <c r="E24">
-        <v>0.9954227347317577</v>
+        <v>1.061238194365253</v>
       </c>
       <c r="F24">
-        <v>1.002055925910957</v>
+        <v>1.070039345059675</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040561296982093</v>
+        <v>1.045155112489346</v>
       </c>
       <c r="J24">
-        <v>1.008934155972267</v>
+        <v>1.062002890375388</v>
       </c>
       <c r="K24">
-        <v>1.018318444236638</v>
+        <v>1.058361310771012</v>
       </c>
       <c r="L24">
-        <v>1.009530711938514</v>
+        <v>1.064522483045269</v>
       </c>
       <c r="M24">
-        <v>1.016047033125885</v>
+        <v>1.073294766123911</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9989957730013493</v>
+        <v>1.058973313626455</v>
       </c>
       <c r="D25">
-        <v>1.018618369476947</v>
+        <v>1.057405890747683</v>
       </c>
       <c r="E25">
-        <v>1.011626210297819</v>
+        <v>1.063970478271023</v>
       </c>
       <c r="F25">
-        <v>1.018914109879128</v>
+        <v>1.072915390122201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047449173000349</v>
+        <v>1.046056697567916</v>
       </c>
       <c r="J25">
-        <v>1.023556980718461</v>
+        <v>1.064430111371474</v>
       </c>
       <c r="K25">
-        <v>1.03093437439064</v>
+        <v>1.060392031867537</v>
       </c>
       <c r="L25">
-        <v>1.024046685959086</v>
+        <v>1.066937030238204</v>
       </c>
       <c r="M25">
-        <v>1.031225736261016</v>
+        <v>1.075855669620246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061376949907918</v>
+        <v>1.01251809119624</v>
       </c>
       <c r="D2">
-        <v>1.059268964046522</v>
+        <v>1.029152712189964</v>
       </c>
       <c r="E2">
-        <v>1.066137741294542</v>
+        <v>1.023598753302242</v>
       </c>
       <c r="F2">
-        <v>1.075198332236494</v>
+        <v>1.031384043595478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046764804841948</v>
+        <v>1.052477141170099</v>
       </c>
       <c r="J2">
-        <v>1.066352946779296</v>
+        <v>1.03433072782553</v>
       </c>
       <c r="K2">
-        <v>1.061998929533475</v>
+        <v>1.040220311142515</v>
       </c>
       <c r="L2">
-        <v>1.068849097986149</v>
+        <v>1.034738825686393</v>
       </c>
       <c r="M2">
-        <v>1.07788553521846</v>
+        <v>1.042422800913474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063115506579163</v>
+        <v>1.021803845137059</v>
       </c>
       <c r="D3">
-        <v>1.060615663001646</v>
+        <v>1.036393170665472</v>
       </c>
       <c r="E3">
-        <v>1.067704699373687</v>
+        <v>1.031826381720907</v>
       </c>
       <c r="F3">
-        <v>1.076849878206589</v>
+        <v>1.039961148387845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047272688990757</v>
+        <v>1.05589635518141</v>
       </c>
       <c r="J3">
-        <v>1.067741759823263</v>
+        <v>1.041717262065276</v>
       </c>
       <c r="K3">
-        <v>1.063158477468311</v>
+        <v>1.046580643601356</v>
       </c>
       <c r="L3">
-        <v>1.070229715825728</v>
+        <v>1.042067610219691</v>
       </c>
       <c r="M3">
-        <v>1.079352306830526</v>
+        <v>1.050107028876963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064237477795957</v>
+        <v>1.027593446301327</v>
       </c>
       <c r="D4">
-        <v>1.061484340803692</v>
+        <v>1.040909468770405</v>
       </c>
       <c r="E4">
-        <v>1.068715636053693</v>
+        <v>1.036958305482338</v>
       </c>
       <c r="F4">
-        <v>1.077915825873264</v>
+        <v>1.045314543505632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047598461532078</v>
+        <v>1.058012199797641</v>
       </c>
       <c r="J4">
-        <v>1.068637107034582</v>
+        <v>1.046316710168272</v>
       </c>
       <c r="K4">
-        <v>1.063905521738347</v>
+        <v>1.050538004772419</v>
       </c>
       <c r="L4">
-        <v>1.071119587538366</v>
+        <v>1.046630235866014</v>
       </c>
       <c r="M4">
-        <v>1.080298215184435</v>
+        <v>1.054895174335357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064708453617011</v>
+        <v>1.029978593553847</v>
       </c>
       <c r="D5">
-        <v>1.061848891014127</v>
+        <v>1.042770367404081</v>
       </c>
       <c r="E5">
-        <v>1.069139931483659</v>
+        <v>1.039072901876196</v>
       </c>
       <c r="F5">
-        <v>1.078363314474427</v>
+        <v>1.047521226755493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047734736153023</v>
+        <v>1.05887994899311</v>
       </c>
       <c r="J5">
-        <v>1.06901273142618</v>
+        <v>1.04821003320934</v>
       </c>
       <c r="K5">
-        <v>1.064218808669961</v>
+        <v>1.05216624180905</v>
       </c>
       <c r="L5">
-        <v>1.071492868959049</v>
+        <v>1.048508190515536</v>
       </c>
       <c r="M5">
-        <v>1.08069512389279</v>
+        <v>1.056866957271388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064787491869683</v>
+        <v>1.030376306231706</v>
       </c>
       <c r="D6">
-        <v>1.06191006326648</v>
+        <v>1.043080678481563</v>
       </c>
       <c r="E6">
-        <v>1.069211131755969</v>
+        <v>1.039425521798465</v>
       </c>
       <c r="F6">
-        <v>1.078438412891997</v>
+        <v>1.047889251292781</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047757577524757</v>
+        <v>1.059024409735649</v>
       </c>
       <c r="J6">
-        <v>1.069075755054717</v>
+        <v>1.048525645142553</v>
       </c>
       <c r="K6">
-        <v>1.064271366036323</v>
+        <v>1.05243761794979</v>
       </c>
       <c r="L6">
-        <v>1.071555496791676</v>
+        <v>1.048821228086524</v>
       </c>
       <c r="M6">
-        <v>1.080761722931379</v>
+        <v>1.05719569402126</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064243773731071</v>
+        <v>1.027625504032032</v>
       </c>
       <c r="D7">
-        <v>1.061489214448988</v>
+        <v>1.040934479237784</v>
       </c>
       <c r="E7">
-        <v>1.068721308251306</v>
+        <v>1.036986725423606</v>
       </c>
       <c r="F7">
-        <v>1.077921807717315</v>
+        <v>1.045344197802504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047600285105713</v>
+        <v>1.058023878460903</v>
       </c>
       <c r="J7">
-        <v>1.068642129192429</v>
+        <v>1.046342163605592</v>
       </c>
       <c r="K7">
-        <v>1.06390971090716</v>
+        <v>1.050559897572163</v>
       </c>
       <c r="L7">
-        <v>1.071124578550352</v>
+        <v>1.046655483533766</v>
       </c>
       <c r="M7">
-        <v>1.080303521632084</v>
+        <v>1.054921679479343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061965131824149</v>
+        <v>1.015703878371708</v>
       </c>
       <c r="D8">
-        <v>1.059724658319982</v>
+        <v>1.03163628961836</v>
       </c>
       <c r="E8">
-        <v>1.06666792934176</v>
+        <v>1.026421013743338</v>
       </c>
       <c r="F8">
-        <v>1.075757049959421</v>
+        <v>1.034325438354986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04693704246</v>
+        <v>1.053653563296232</v>
       </c>
       <c r="J8">
-        <v>1.066822994961913</v>
+        <v>1.036866148598193</v>
       </c>
       <c r="K8">
-        <v>1.062391485495858</v>
+        <v>1.04240412310209</v>
       </c>
       <c r="L8">
-        <v>1.069316412467505</v>
+        <v>1.037254604479027</v>
       </c>
       <c r="M8">
-        <v>1.078381905973982</v>
+        <v>1.045059688338222</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057926278518517</v>
+        <v>0.9928339130543878</v>
       </c>
       <c r="D9">
-        <v>1.056593916734176</v>
+        <v>1.013822817713474</v>
       </c>
       <c r="E9">
-        <v>1.063026107187637</v>
+        <v>1.006174659696521</v>
       </c>
       <c r="F9">
-        <v>1.071921074080035</v>
+        <v>1.013240061193238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04574616961598</v>
+        <v>1.045141585356603</v>
       </c>
       <c r="J9">
-        <v>1.063591560669158</v>
+        <v>1.018642287146413</v>
       </c>
       <c r="K9">
-        <v>1.05969074625806</v>
+        <v>1.026695540716368</v>
       </c>
       <c r="L9">
-        <v>1.066102971527101</v>
+        <v>1.019168345464884</v>
       </c>
       <c r="M9">
-        <v>1.074970759497738</v>
+        <v>1.026121918816074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05521688191818</v>
+        <v>0.9760279126069125</v>
       </c>
       <c r="D10">
-        <v>1.054491703971969</v>
+        <v>1.00076206421964</v>
       </c>
       <c r="E10">
-        <v>1.060581569445362</v>
+        <v>0.9913213683727848</v>
       </c>
       <c r="F10">
-        <v>1.069348503321495</v>
+        <v>0.9977918517869272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044937032602859</v>
+        <v>1.038804882106691</v>
       </c>
       <c r="J10">
-        <v>1.061419086660913</v>
+        <v>1.005226011864407</v>
       </c>
       <c r="K10">
-        <v>1.057872509297541</v>
+        <v>1.015117572979966</v>
       </c>
       <c r="L10">
-        <v>1.063941580305755</v>
+        <v>1.005849106329457</v>
       </c>
       <c r="M10">
-        <v>1.072679035291621</v>
+        <v>1.012201089814482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054039476293978</v>
+        <v>0.9682945579787153</v>
       </c>
       <c r="D11">
-        <v>1.05357769891199</v>
+        <v>0.9947627173291569</v>
       </c>
       <c r="E11">
-        <v>1.059518916211598</v>
+        <v>0.9844950590396119</v>
       </c>
       <c r="F11">
-        <v>1.068230739508575</v>
+        <v>0.9906971971818463</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044582983561595</v>
+        <v>1.035871286836241</v>
       </c>
       <c r="J11">
-        <v>1.060473893723973</v>
+        <v>0.9990485044140619</v>
       </c>
       <c r="K11">
-        <v>1.057080839238979</v>
+        <v>1.009784081631888</v>
       </c>
       <c r="L11">
-        <v>1.063000966382796</v>
+        <v>0.9997154215809518</v>
       </c>
       <c r="M11">
-        <v>1.071682331557867</v>
+        <v>1.00579670932147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05360148287724</v>
+        <v>0.9653444173066141</v>
       </c>
       <c r="D12">
-        <v>1.053237622533506</v>
+        <v>0.9924760323437041</v>
       </c>
       <c r="E12">
-        <v>1.059123559119494</v>
+        <v>0.9818924875308236</v>
       </c>
       <c r="F12">
-        <v>1.067814960944811</v>
+        <v>0.9879930944991318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044450913589352</v>
+        <v>1.034749680520065</v>
       </c>
       <c r="J12">
-        <v>1.060122116153484</v>
+        <v>0.9966914928982638</v>
       </c>
       <c r="K12">
-        <v>1.056786109889671</v>
+        <v>1.00774881339651</v>
       </c>
       <c r="L12">
-        <v>1.062650856330957</v>
+        <v>0.9973750202463501</v>
       </c>
       <c r="M12">
-        <v>1.071311438857026</v>
+        <v>1.003354000689542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.053695463783195</v>
+        <v>0.9659809104433787</v>
       </c>
       <c r="D13">
-        <v>1.053310596271111</v>
+        <v>0.9929692899032606</v>
       </c>
       <c r="E13">
-        <v>1.059208393803262</v>
+        <v>0.9824539180015089</v>
       </c>
       <c r="F13">
-        <v>1.067904173888959</v>
+        <v>0.9885763921248737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044479268509471</v>
+        <v>1.034991776362645</v>
       </c>
       <c r="J13">
-        <v>1.060197605143117</v>
+        <v>0.9972000328968057</v>
       </c>
       <c r="K13">
-        <v>1.056849360760371</v>
+        <v>1.008187946940508</v>
       </c>
       <c r="L13">
-        <v>1.06272598914517</v>
+        <v>0.9978799811102813</v>
       </c>
       <c r="M13">
-        <v>1.071391027289082</v>
+        <v>1.003880990504435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054003285042077</v>
+        <v>0.9680523408255395</v>
       </c>
       <c r="D14">
-        <v>1.053549599883853</v>
+        <v>0.9945749302818874</v>
       </c>
       <c r="E14">
-        <v>1.059486249030653</v>
+        <v>0.9842813455545648</v>
       </c>
       <c r="F14">
-        <v>1.068196383283604</v>
+        <v>0.9904751305212527</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044572078085721</v>
+        <v>1.035779248197925</v>
       </c>
       <c r="J14">
-        <v>1.060444829861253</v>
+        <v>0.9988549921440744</v>
       </c>
       <c r="K14">
-        <v>1.057056490516094</v>
+        <v>1.00961699007</v>
       </c>
       <c r="L14">
-        <v>1.06297204103932</v>
+        <v>0.9995232751230769</v>
       </c>
       <c r="M14">
-        <v>1.071651687262974</v>
+        <v>1.005596143449756</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054192856847983</v>
+        <v>0.9693180295127791</v>
       </c>
       <c r="D15">
-        <v>1.053696781408041</v>
+        <v>0.9955562800745134</v>
       </c>
       <c r="E15">
-        <v>1.059657359453906</v>
+        <v>0.9853981547240326</v>
       </c>
       <c r="F15">
-        <v>1.068376344273402</v>
+        <v>0.9916356227195238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044629186677987</v>
+        <v>1.036260089841615</v>
       </c>
       <c r="J15">
-        <v>1.060597061171643</v>
+        <v>0.9998661619435912</v>
       </c>
       <c r="K15">
-        <v>1.057184021120405</v>
+        <v>1.010490091142407</v>
       </c>
       <c r="L15">
-        <v>1.063123545308723</v>
+        <v>1.000527303730662</v>
       </c>
       <c r="M15">
-        <v>1.071812198882519</v>
+        <v>1.00664420617089</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05529493197204</v>
+        <v>0.9765308004976074</v>
       </c>
       <c r="D16">
-        <v>1.054552283690237</v>
+        <v>1.001152439715944</v>
       </c>
       <c r="E16">
-        <v>1.060652005350228</v>
+        <v>0.9917654686315317</v>
       </c>
       <c r="F16">
-        <v>1.069422603629957</v>
+        <v>0.9982535152858608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044960451437829</v>
+        <v>1.038995298698212</v>
       </c>
       <c r="J16">
-        <v>1.061481719959844</v>
+        <v>1.005627659726709</v>
       </c>
       <c r="K16">
-        <v>1.057924956870776</v>
+        <v>1.015464300973712</v>
       </c>
       <c r="L16">
-        <v>1.064003905052445</v>
+        <v>1.006247888759363</v>
       </c>
       <c r="M16">
-        <v>1.072745089785632</v>
+        <v>1.01261760411188</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055985091907281</v>
+        <v>0.9809271358143918</v>
       </c>
       <c r="D17">
-        <v>1.055087908847166</v>
+        <v>1.004566395956221</v>
       </c>
       <c r="E17">
-        <v>1.061274797149992</v>
+        <v>0.9956488491634033</v>
       </c>
       <c r="F17">
-        <v>1.070077858936848</v>
+        <v>1.0022910441735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045167253356162</v>
+        <v>1.040657989547538</v>
       </c>
       <c r="J17">
-        <v>1.062035428334256</v>
+        <v>1.009138514640378</v>
       </c>
       <c r="K17">
-        <v>1.058388549771934</v>
+        <v>1.018494830648531</v>
       </c>
       <c r="L17">
-        <v>1.064554857667895</v>
+        <v>1.009733602371531</v>
       </c>
       <c r="M17">
-        <v>1.073329086053814</v>
+        <v>1.016259021980559</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056387244719838</v>
+        <v>0.9834481181870889</v>
       </c>
       <c r="D18">
-        <v>1.055399970663223</v>
+        <v>1.006525015557346</v>
       </c>
       <c r="E18">
-        <v>1.061637661563657</v>
+        <v>0.9978764595781016</v>
       </c>
       <c r="F18">
-        <v>1.070459690487784</v>
+        <v>1.004607548800698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045287522075185</v>
+        <v>1.041609761875976</v>
       </c>
       <c r="J18">
-        <v>1.062357964164015</v>
+        <v>1.011151356441426</v>
       </c>
       <c r="K18">
-        <v>1.058658535708231</v>
+        <v>1.020232061296635</v>
       </c>
       <c r="L18">
-        <v>1.064875764911992</v>
+        <v>1.011731949047874</v>
       </c>
       <c r="M18">
-        <v>1.07366930042944</v>
+        <v>1.018347221099476</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056524300167528</v>
+        <v>0.9843006080398956</v>
       </c>
       <c r="D19">
-        <v>1.055506315140134</v>
+        <v>1.007187491269054</v>
       </c>
       <c r="E19">
-        <v>1.061761321685708</v>
+        <v>0.9986298669883882</v>
       </c>
       <c r="F19">
-        <v>1.070589823303555</v>
+        <v>1.005391100815723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045328470520918</v>
+        <v>1.041931324638738</v>
       </c>
       <c r="J19">
-        <v>1.062467867575769</v>
+        <v>1.011831944786846</v>
       </c>
       <c r="K19">
-        <v>1.058750523081292</v>
+        <v>1.020819417846507</v>
       </c>
       <c r="L19">
-        <v>1.06498510943145</v>
+        <v>1.012407622029385</v>
       </c>
       <c r="M19">
-        <v>1.073785233842666</v>
+        <v>1.019053373585908</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055911086386575</v>
+        <v>0.980459992235298</v>
       </c>
       <c r="D20">
-        <v>1.0550304785949</v>
+        <v>1.004203535075877</v>
       </c>
       <c r="E20">
-        <v>1.061208018926082</v>
+        <v>0.9952361288833549</v>
       </c>
       <c r="F20">
-        <v>1.070007594406864</v>
+        <v>1.00186189212651</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045145102268322</v>
+        <v>1.040481488022772</v>
       </c>
       <c r="J20">
-        <v>1.061976065551843</v>
+        <v>1.008765498424239</v>
       </c>
       <c r="K20">
-        <v>1.05833885417022</v>
+        <v>1.018172870913894</v>
       </c>
       <c r="L20">
-        <v>1.064495792747075</v>
+        <v>1.009363265664048</v>
       </c>
       <c r="M20">
-        <v>1.073266472416411</v>
+        <v>1.015872081223967</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.053912657518111</v>
+        <v>0.967444580885219</v>
       </c>
       <c r="D21">
-        <v>1.053479235235767</v>
+        <v>0.99410377664688</v>
       </c>
       <c r="E21">
-        <v>1.059404445402539</v>
+        <v>0.9837451315132196</v>
       </c>
       <c r="F21">
-        <v>1.068110351359475</v>
+        <v>0.9899179706193507</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044544763500219</v>
+        <v>1.035548269831442</v>
       </c>
       <c r="J21">
-        <v>1.060372047536507</v>
+        <v>0.9983694345241017</v>
       </c>
       <c r="K21">
-        <v>1.056995514503065</v>
+        <v>1.00919772247584</v>
       </c>
       <c r="L21">
-        <v>1.062899605004452</v>
+        <v>0.9990411428783066</v>
       </c>
       <c r="M21">
-        <v>1.071574948090332</v>
+        <v>1.005092901122221</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05265238114108</v>
+        <v>0.9588062594302064</v>
       </c>
       <c r="D22">
-        <v>1.052500578072912</v>
+        <v>0.9874123345405988</v>
       </c>
       <c r="E22">
-        <v>1.058266753853074</v>
+        <v>0.9761278299958843</v>
       </c>
       <c r="F22">
-        <v>1.066914049699699</v>
+        <v>0.9820050042230363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044164061188242</v>
+        <v>1.03225956327187</v>
       </c>
       <c r="J22">
-        <v>1.059359533188601</v>
+        <v>0.9914673471204641</v>
       </c>
       <c r="K22">
-        <v>1.056147033275773</v>
+        <v>1.003237348976931</v>
       </c>
       <c r="L22">
-        <v>1.061891820872512</v>
+        <v>0.9921875111703496</v>
       </c>
       <c r="M22">
-        <v>1.070507520495799</v>
+        <v>0.9979415776209964</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C23">
-        <v>1.053320842545805</v>
+        <v>0.9634322463125612</v>
       </c>
       <c r="D23">
-        <v>1.053019702792322</v>
+        <v>0.990994493206478</v>
       </c>
       <c r="E23">
-        <v>1.058870223216249</v>
+        <v>0.9802060724618513</v>
       </c>
       <c r="F23">
-        <v>1.067548562611164</v>
+        <v>0.9862411104792388</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044366188483059</v>
+        <v>1.03402201908454</v>
       </c>
       <c r="J23">
-        <v>1.059896670892451</v>
+        <v>0.9951636807601655</v>
       </c>
       <c r="K23">
-        <v>1.056597200323916</v>
+        <v>1.006429483998489</v>
       </c>
       <c r="L23">
-        <v>1.062426469389806</v>
+        <v>0.995857946512961</v>
       </c>
       <c r="M23">
-        <v>1.071073758942466</v>
+        <v>1.001770890675874</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055944527549458</v>
+        <v>0.9806712075296223</v>
       </c>
       <c r="D24">
-        <v>1.055056429963859</v>
+        <v>1.004367596803732</v>
       </c>
       <c r="E24">
-        <v>1.061238194365253</v>
+        <v>0.9954227347317594</v>
       </c>
       <c r="F24">
-        <v>1.070039345059675</v>
+        <v>1.002055925910958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045155112489346</v>
+        <v>1.040561296982094</v>
       </c>
       <c r="J24">
-        <v>1.062002890375388</v>
+        <v>1.008934155972269</v>
       </c>
       <c r="K24">
-        <v>1.058361310771012</v>
+        <v>1.01831844423664</v>
       </c>
       <c r="L24">
-        <v>1.064522483045269</v>
+        <v>1.009530711938516</v>
       </c>
       <c r="M24">
-        <v>1.073294766123911</v>
+        <v>1.016047033125886</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058973313626455</v>
+        <v>0.9989957730013473</v>
       </c>
       <c r="D25">
-        <v>1.057405890747683</v>
+        <v>1.018618369476945</v>
       </c>
       <c r="E25">
-        <v>1.063970478271023</v>
+        <v>1.011626210297816</v>
       </c>
       <c r="F25">
-        <v>1.072915390122201</v>
+        <v>1.018914109879126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046056697567916</v>
+        <v>1.047449173000348</v>
       </c>
       <c r="J25">
-        <v>1.064430111371474</v>
+        <v>1.023556980718459</v>
       </c>
       <c r="K25">
-        <v>1.060392031867537</v>
+        <v>1.030934374390638</v>
       </c>
       <c r="L25">
-        <v>1.066937030238204</v>
+        <v>1.024046685959083</v>
       </c>
       <c r="M25">
-        <v>1.075855669620246</v>
+        <v>1.031225736261014</v>
       </c>
     </row>
   </sheetData>
